--- a/PPE/ppe_records.xlsx
+++ b/PPE/ppe_records.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>employee_id</t>
   </si>
@@ -27,6 +27,12 @@
     <t>Jimmy</t>
   </si>
   <si>
+    <t>Timmy</t>
+  </si>
+  <si>
+    <t>Philip</t>
+  </si>
+  <si>
     <t>ppe_id</t>
   </si>
   <si>
@@ -40,9 +46,6 @@
   </si>
   <si>
     <t>return_datetime</t>
-  </si>
-  <si>
-    <t>0000-00-00 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,6 +432,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>123456790</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>123456791</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -436,7 +461,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -444,10 +469,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -458,7 +483,29 @@
         <v>123456789</v>
       </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>123456816</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>123456817</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -468,7 +515,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -476,19 +523,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -496,19 +543,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>123456789</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+        <v>123456789</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45093.4890162037</v>
       </c>
       <c r="F2" s="2">
-        <v>45092.8475462963</v>
+        <v>45093.48913194444</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -516,19 +563,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>123456789</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+        <v>123456789</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45093.48960648148</v>
       </c>
       <c r="F3" s="2">
-        <v>45092.84991898148</v>
+        <v>45093.49167824074</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -536,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>123456789</v>
@@ -545,10 +592,10 @@
         <v>123456789</v>
       </c>
       <c r="E4" s="2">
-        <v>45092.8515625</v>
+        <v>45093.4919212963</v>
       </c>
       <c r="F4" s="2">
-        <v>45092.85444444444</v>
+        <v>45093.49201388889</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -556,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>123456789</v>
@@ -565,10 +612,10 @@
         <v>123456789</v>
       </c>
       <c r="E5" s="2">
-        <v>45092.855625</v>
+        <v>45093.49267361111</v>
       </c>
       <c r="F5" s="2">
-        <v>45093.43784722222</v>
+        <v>45093.49273148148</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -576,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>123456789</v>
@@ -585,10 +632,10 @@
         <v>123456789</v>
       </c>
       <c r="E6" s="2">
-        <v>45093.43831018519</v>
+        <v>45093.49309027778</v>
       </c>
       <c r="F6" s="2">
-        <v>45093.4425462963</v>
+        <v>45093.59010416667</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -596,7 +643,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>123456789</v>
@@ -605,10 +652,10 @@
         <v>123456789</v>
       </c>
       <c r="E7" s="2">
-        <v>45093.44267361111</v>
+        <v>45093.59041666667</v>
       </c>
       <c r="F7" s="2">
-        <v>45093.44277777777</v>
+        <v>45093.59108796297</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -616,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>123456789</v>
@@ -625,10 +672,110 @@
         <v>123456789</v>
       </c>
       <c r="E8" s="2">
-        <v>45093.44288194444</v>
+        <v>45096.5480787037</v>
       </c>
       <c r="F8" s="2">
-        <v>45093.45222222222</v>
+        <v>45096.67424768519</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>123456789</v>
+      </c>
+      <c r="D9">
+        <v>123456789</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45096.68167824074</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45096.68300925926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>123456789</v>
+      </c>
+      <c r="D10">
+        <v>123456789</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45096.68420138889</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45096.68453703704</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>123456789</v>
+      </c>
+      <c r="D11">
+        <v>123456789</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45096.68480324074</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45096.69332175926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>123456789</v>
+      </c>
+      <c r="D12">
+        <v>123456789</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45110.67377314815</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45110.6812037037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>123456789</v>
+      </c>
+      <c r="D13">
+        <v>123456789</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45110.691875</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45110.70247685185</v>
       </c>
     </row>
   </sheetData>
